--- a/MISPLANTILLAS.xlsx
+++ b/MISPLANTILLAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ccdf230214d9353/Escritorio/Desarrollo-Web/BLUE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_ABFA22404DF2F929D49F032FFA4968E5D7C2AF36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF624E0-25F5-4FE9-80DD-5EA9EAA6FEC5}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_ABFA22404DF2F929D49F032FFA4968E5D7C2AF36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92D389A4-59BA-46A9-A4AD-FAA31C05C3C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>, puedo ver en el sistema que su envío ha presentado una incidencia el día 29/09 por lo cual no ha sido posible gestionar la entrega ese mismo día, es por esto que debo pedirle se pueda comunicar con su remitente, en este caso SHEIN, el cual deberá proporcionarle los pasos a seguir.</t>
   </si>
   <si>
-    <t>puedo ver que su envío estuvo en reparto pero el punto donde debería ser entregado estaba cerrado al momento de la entrega, por lo que tendrá un nuevo intento de entrega dentro de 24 a 48hrs</t>
-  </si>
-  <si>
     <t>CA-OFICINA CERRADA</t>
   </si>
   <si>
@@ -416,6 +413,9 @@
   </si>
   <si>
     <t>Indíqueme el otro numero de seguimiento por favor, considere que los numero de seguimiento que usa Blue Express contienen 10 dígitos y suelen comenzar en 7, 8 ò 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> estaba cerrado al momento de la entrega, por lo que tendrá un nuevo intento de entrega dentro de 24 a 48hrs</t>
   </si>
 </sst>
 </file>
@@ -751,13 +751,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,259 +1021,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1056,6 +1056,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1323,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O13"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,755 +1338,755 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="79"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="94"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="26"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="107"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="74"/>
     </row>
     <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="110"/>
+      <c r="C25" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="75"/>
+      <c r="C31" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="112"/>
+      <c r="C43" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="B46" s="108"/>
+      <c r="C46" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="113"/>
+      <c r="C49" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="71"/>
+      <c r="C55" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="71"/>
+      <c r="C57" s="55" t="s">
         <v>86</v>
-      </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="64" t="s">
-        <v>87</v>
       </c>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
@@ -2098,59 +2102,59 @@
       <c r="O57" s="57"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="59"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="60"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="20" t="s">
+      <c r="A59" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C61" s="5"/>
@@ -2168,36 +2172,36 @@
       <c r="O61" s="5"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="78" t="s">
+      <c r="B62" s="85"/>
+      <c r="C62" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="81"/>
-      <c r="N62" s="81"/>
-      <c r="O62" s="81"/>
-      <c r="P62" s="82"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="70"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="78" t="s">
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="79"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -2211,10 +2215,10 @@
       <c r="O63" s="5"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="56" t="s">
         <v>61</v>
       </c>
@@ -2232,29 +2236,29 @@
       <c r="O65" s="57"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="59"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="60"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64" t="s">
-        <v>127</v>
+      <c r="B68" s="90"/>
+      <c r="C68" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
@@ -2270,69 +2274,69 @@
       <c r="O68" s="57"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="62"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="59"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="60"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="43"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="26"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="76"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="46"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="29"/>
     </row>
     <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="66" t="s">
+      <c r="A74" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="64" t="s">
+      <c r="B74" s="93"/>
+      <c r="C74" s="55" t="s">
         <v>68</v>
       </c>
       <c r="D74" s="56"/>
@@ -2349,29 +2353,29 @@
       <c r="O74" s="57"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="68"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="59"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="60"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="97"/>
+      <c r="C77" s="55" t="s">
         <v>70</v>
-      </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="64" t="s">
-        <v>71</v>
       </c>
       <c r="D77" s="56"/>
       <c r="E77" s="56"/>
@@ -2387,538 +2391,588 @@
       <c r="O77" s="57"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="72"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="58"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="59"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="60"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="43"/>
+      <c r="A80" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="44"/>
+      <c r="C80" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="26"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="46"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="29"/>
     </row>
     <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C82" s="4" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="100" t="s">
+      <c r="A83" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="101"/>
-      <c r="C83" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="43"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="26"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="102"/>
-      <c r="B84" s="103"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="46"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="29"/>
     </row>
     <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="81"/>
+      <c r="C86" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="41" t="s">
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="26"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="82"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="29"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="43"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="49"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="46"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="104" t="s">
+      <c r="B89" s="48"/>
+      <c r="C89" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B89" s="105"/>
-      <c r="C89" s="41" t="s">
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="26"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="49"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="29"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="43"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="106"/>
-      <c r="B90" s="107"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="46"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="96" t="s">
+      <c r="B92" s="21"/>
+      <c r="C92" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="26"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="29"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="97"/>
-      <c r="C92" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="O92" s="43"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="98"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
-      <c r="M93" s="45"/>
-      <c r="N93" s="45"/>
-      <c r="O93" s="46"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="108" t="s">
+      <c r="B95" s="52"/>
+      <c r="C95" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="26"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="29"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="109"/>
-      <c r="C95" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="42"/>
-      <c r="N95" s="42"/>
-      <c r="O95" s="43"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="110"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="46"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="37" t="s">
+      <c r="B98" s="44"/>
+      <c r="C98" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="42"/>
-      <c r="O98" s="43"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="26"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="45"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="46"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="29"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="101"/>
-      <c r="C101" s="41" t="s">
+      <c r="A101" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="31"/>
+      <c r="C101" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="26"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="32"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="29"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="21"/>
+      <c r="C104" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="26"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="22"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="29"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="35"/>
+      <c r="C107" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
-      <c r="M101" s="42"/>
-      <c r="N101" s="42"/>
-      <c r="O101" s="43"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="102"/>
-      <c r="B102" s="103"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="46"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="97"/>
-      <c r="C104" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="42"/>
-      <c r="M104" s="42"/>
-      <c r="N104" s="42"/>
-      <c r="O104" s="43"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="98"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="45"/>
-      <c r="N105" s="45"/>
-      <c r="O105" s="46"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="60" t="s">
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="26"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="36"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="29"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" s="35"/>
+      <c r="C110" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="112"/>
-      <c r="C107" s="41" t="s">
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="26"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="36"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="28"/>
+      <c r="O111" s="29"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="42"/>
-      <c r="N107" s="42"/>
-      <c r="O107" s="43"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="62"/>
-      <c r="B108" s="113"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="46"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="112"/>
-      <c r="C110" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="42"/>
-      <c r="L110" s="42"/>
-      <c r="M110" s="42"/>
-      <c r="N110" s="42"/>
-      <c r="O110" s="43"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="62"/>
-      <c r="B111" s="113"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="45"/>
-      <c r="O111" s="46"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="96" t="s">
+      <c r="B113" s="21"/>
+      <c r="C113" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="97"/>
-      <c r="C113" s="41" t="s">
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="26"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="28"/>
+      <c r="O114" s="29"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="O113" s="43"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="98"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="45"/>
-      <c r="O114" s="46"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A116" s="100" t="s">
+      <c r="B116" s="31"/>
+      <c r="C116" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="101"/>
-      <c r="C116" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="42"/>
-      <c r="O116" s="43"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="26"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A117" s="102"/>
-      <c r="B117" s="103"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="45"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="45"/>
-      <c r="O117" s="46"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
+      <c r="O117" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:B87" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="84">
-    <mergeCell ref="A113:B114"/>
-    <mergeCell ref="C113:O114"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="C116:O117"/>
-    <mergeCell ref="C95:O96"/>
-    <mergeCell ref="A107:B108"/>
-    <mergeCell ref="C107:O108"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="C110:O111"/>
+    <mergeCell ref="C43:O44"/>
+    <mergeCell ref="C49:O50"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:O53"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="D22:R22"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:O47"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:O35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C31:O32"/>
+    <mergeCell ref="C19:O20"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:O38"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:O41"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:O10"/>
+    <mergeCell ref="C6:O7"/>
+    <mergeCell ref="C3:O4"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:O81"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:O87"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:O56"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C59:O60"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="C65:O66"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="C68:O69"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:O75"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:O78"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:O72"/>
+    <mergeCell ref="C12:O13"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:P62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:O58"/>
+    <mergeCell ref="C28:O29"/>
+    <mergeCell ref="C25:O26"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="D23:R23"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C15:R15"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="A15:B17"/>
     <mergeCell ref="D17:P17"/>
@@ -2935,65 +2989,15 @@
     <mergeCell ref="A92:B93"/>
     <mergeCell ref="C92:O93"/>
     <mergeCell ref="A95:B96"/>
-    <mergeCell ref="C77:O78"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:O72"/>
-    <mergeCell ref="C12:O13"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:P62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:O58"/>
-    <mergeCell ref="C28:O29"/>
-    <mergeCell ref="C25:O26"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="D23:R23"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C15:R15"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C80:O81"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:O87"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:O56"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C59:O60"/>
-    <mergeCell ref="A65:B66"/>
-    <mergeCell ref="C65:O66"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="C68:O69"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="A74:B75"/>
-    <mergeCell ref="C74:O75"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:O10"/>
-    <mergeCell ref="C6:O7"/>
-    <mergeCell ref="C3:O4"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="D22:R22"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:O47"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:O35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C31:O32"/>
-    <mergeCell ref="C19:O20"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:O38"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:O41"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:O44"/>
-    <mergeCell ref="C49:O50"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:O53"/>
+    <mergeCell ref="A113:B114"/>
+    <mergeCell ref="C113:O114"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="C116:O117"/>
+    <mergeCell ref="C95:O96"/>
+    <mergeCell ref="A107:B108"/>
+    <mergeCell ref="C107:O108"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="C110:O111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3370,7 +3374,7 @@
         <v>48</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -3411,10 +3415,10 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -3455,10 +3459,10 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
@@ -3499,7 +3503,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O19" s="16"/>
     </row>
@@ -3541,10 +3545,10 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -3585,7 +3589,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O21" s="16"/>
     </row>
@@ -3648,7 +3652,7 @@
         <v>48</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O24" s="18"/>
     </row>
@@ -3672,22 +3676,22 @@
         <v>45179</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -3730,10 +3734,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -3774,10 +3778,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
@@ -3818,10 +3822,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -3839,7 +3843,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="13">
         <v>0.39583333333333331</v>
@@ -3860,10 +3864,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
@@ -3883,7 +3887,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="13">
         <v>0.35416666666666669</v>
@@ -3922,7 +3926,7 @@
         <v>48</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="18"/>
     </row>
@@ -3943,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="13">
         <v>0.33333333333333331</v>
@@ -3983,7 +3987,7 @@
         <v>6</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="13">
         <v>0.33333333333333331</v>
@@ -4023,7 +4027,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H35" s="13">
         <v>0.33333333333333331</v>
@@ -4063,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="13">
         <v>0.33333333333333331</v>
@@ -4103,7 +4107,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="13">
         <v>0.33333333333333331</v>
@@ -4143,7 +4147,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="13">
         <v>0.52083333333333337</v>
